--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/86/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/86/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.36728</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>3367.28</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.64522</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3645.22</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154973</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>3.93141</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>3931.41</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185949</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>4.18253</v>
+        <v>6.66545</v>
       </c>
       <c r="C8" t="n">
-        <v>4182.53</v>
+        <v>6665.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216926</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>4.41931</v>
+        <v>6.95668</v>
       </c>
       <c r="C9" t="n">
-        <v>4419.31</v>
+        <v>6956.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247884</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>4.53739</v>
+        <v>7.114710000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>4537.39</v>
+        <v>7114.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278809</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>4.62976</v>
+        <v>7.190560000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>4629.76</v>
+        <v>7190.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309734</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>4.69468</v>
+        <v>7.246060000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>4694.68</v>
+        <v>7246.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340659</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>4.7265</v>
+        <v>7.29964</v>
       </c>
       <c r="C13" t="n">
-        <v>4726.5</v>
+        <v>7299.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371584</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>4.74401</v>
+        <v>7.33675</v>
       </c>
       <c r="C14" t="n">
-        <v>4744.01</v>
+        <v>7336.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402509</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>4.757239999999999</v>
+        <v>7.375649999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>4757.24</v>
+        <v>7375.65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433434</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>4.76746</v>
+        <v>7.40814</v>
       </c>
       <c r="C16" t="n">
-        <v>4767.46</v>
+        <v>7408.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464359</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>4.77512</v>
+        <v>7.4358</v>
       </c>
       <c r="C17" t="n">
-        <v>4775.12</v>
+        <v>7435.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495279</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>4.78141</v>
+        <v>7.46239</v>
       </c>
       <c r="C18" t="n">
-        <v>4781.41</v>
+        <v>7462.39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526204</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>4.788</v>
+        <v>7.48462</v>
       </c>
       <c r="C19" t="n">
-        <v>4788</v>
+        <v>7484.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557129</v>
+        <v>0.557217</v>
       </c>
       <c r="B20" t="n">
-        <v>4.79325</v>
+        <v>7.50524</v>
       </c>
       <c r="C20" t="n">
-        <v>4793.25</v>
+        <v>7505.24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588055</v>
+        <v>0.5881420000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>4.79846</v>
+        <v>7.523270000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>4798.46</v>
+        <v>7523.27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619096</v>
+        <v>0.619184</v>
       </c>
       <c r="B22" t="n">
-        <v>4.80308</v>
+        <v>7.53985</v>
       </c>
       <c r="C22" t="n">
-        <v>4803.08</v>
+        <v>7539.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650274</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>4.80755</v>
+        <v>7.5542</v>
       </c>
       <c r="C23" t="n">
-        <v>4807.55</v>
+        <v>7554.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681446</v>
+        <v>0.6815290000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>4.81166</v>
+        <v>7.56699</v>
       </c>
       <c r="C24" t="n">
-        <v>4811.66</v>
+        <v>7566.99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712619</v>
+        <v>0.712706</v>
       </c>
       <c r="B25" t="n">
-        <v>4.81545</v>
+        <v>7.578180000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>4815.45</v>
+        <v>7578.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743796</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>4.819020000000001</v>
+        <v>7.58802</v>
       </c>
       <c r="C26" t="n">
-        <v>4819.02</v>
+        <v>7588.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774968</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>4.82237</v>
+        <v>7.59639</v>
       </c>
       <c r="C27" t="n">
-        <v>4822.37</v>
+        <v>7596.39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806141</v>
+        <v>0.8062279999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>4.8255</v>
+        <v>7.60363</v>
       </c>
       <c r="C28" t="n">
-        <v>4825.5</v>
+        <v>7603.63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837318</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>4.82841</v>
+        <v>7.60971</v>
       </c>
       <c r="C29" t="n">
-        <v>4828.41</v>
+        <v>7609.71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.86849</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>4.83115</v>
+        <v>7.614560000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>4831.15</v>
+        <v>7614.56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899667</v>
+        <v>0.89975</v>
       </c>
       <c r="B31" t="n">
-        <v>4.83371</v>
+        <v>7.61838</v>
       </c>
       <c r="C31" t="n">
-        <v>4833.71</v>
+        <v>7618.38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93084</v>
+        <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>4.83611</v>
+        <v>7.621</v>
       </c>
       <c r="C32" t="n">
-        <v>4836.11</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962013</v>
+        <v>0.9621</v>
       </c>
       <c r="B33" t="n">
-        <v>4.83835</v>
+        <v>7.622520000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>4838.35</v>
+        <v>7622.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99319</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>4.84046</v>
+        <v>7.62304</v>
       </c>
       <c r="C34" t="n">
-        <v>4840.46</v>
+        <v>7623.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02423</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>4.8424</v>
+        <v>7.62251</v>
       </c>
       <c r="C35" t="n">
-        <v>4842.4</v>
+        <v>7622.51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.0552</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>4.8442</v>
+        <v>7.621</v>
       </c>
       <c r="C36" t="n">
-        <v>4844.2</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08617</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>4.84588</v>
+        <v>7.61852</v>
       </c>
       <c r="C37" t="n">
-        <v>4845.88</v>
+        <v>7618.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11714</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>4.84743</v>
+        <v>7.61507</v>
       </c>
       <c r="C38" t="n">
-        <v>4847.43</v>
+        <v>7615.07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1481</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>4.84884</v>
+        <v>7.61064</v>
       </c>
       <c r="C39" t="n">
-        <v>4848.84</v>
+        <v>7610.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17901</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>4.850140000000001</v>
+        <v>7.60522</v>
       </c>
       <c r="C40" t="n">
-        <v>4850.14</v>
+        <v>7605.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21006</v>
+        <v>1.21287</v>
       </c>
       <c r="B41" t="n">
-        <v>4.85134</v>
+        <v>7.598850000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>4851.34</v>
+        <v>7598.85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24065</v>
+        <v>1.24424</v>
       </c>
       <c r="B42" t="n">
-        <v>4.85241</v>
+        <v>7.59147</v>
       </c>
       <c r="C42" t="n">
-        <v>4852.41</v>
+        <v>7591.47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.2712</v>
+        <v>1.27562</v>
       </c>
       <c r="B43" t="n">
-        <v>4.85337</v>
+        <v>7.58288</v>
       </c>
       <c r="C43" t="n">
-        <v>4853.37</v>
+        <v>7582.88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30205</v>
+        <v>1.30701</v>
       </c>
       <c r="B44" t="n">
-        <v>4.85426</v>
+        <v>7.5729</v>
       </c>
       <c r="C44" t="n">
-        <v>4854.26</v>
+        <v>7572.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33363</v>
+        <v>1.33839</v>
       </c>
       <c r="B45" t="n">
-        <v>4.85505</v>
+        <v>7.561970000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>4855.05</v>
+        <v>7561.97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36518</v>
+        <v>1.36976</v>
       </c>
       <c r="B46" t="n">
-        <v>4.85575</v>
+        <v>7.55003</v>
       </c>
       <c r="C46" t="n">
-        <v>4855.75</v>
+        <v>7550.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39632</v>
+        <v>1.40115</v>
       </c>
       <c r="B47" t="n">
-        <v>4.85634</v>
+        <v>7.53699</v>
       </c>
       <c r="C47" t="n">
-        <v>4856.34</v>
+        <v>7536.99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42747</v>
+        <v>1.43253</v>
       </c>
       <c r="B48" t="n">
-        <v>4.85684</v>
+        <v>7.52292</v>
       </c>
       <c r="C48" t="n">
-        <v>4856.84</v>
+        <v>7522.92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45862</v>
+        <v>1.46391</v>
       </c>
       <c r="B49" t="n">
-        <v>4.85724</v>
+        <v>7.50765</v>
       </c>
       <c r="C49" t="n">
-        <v>4857.24</v>
+        <v>7507.65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48977</v>
+        <v>1.49529</v>
       </c>
       <c r="B50" t="n">
-        <v>4.85756</v>
+        <v>7.491140000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>4857.56</v>
+        <v>7491.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52091</v>
+        <v>1.52667</v>
       </c>
       <c r="B51" t="n">
-        <v>4.85777</v>
+        <v>7.4732</v>
       </c>
       <c r="C51" t="n">
-        <v>4857.77</v>
+        <v>7473.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55206</v>
+        <v>1.55805</v>
       </c>
       <c r="B52" t="n">
-        <v>4.85789</v>
+        <v>7.45376</v>
       </c>
       <c r="C52" t="n">
-        <v>4857.89</v>
+        <v>7453.76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58281</v>
+        <v>1.58943</v>
       </c>
       <c r="B53" t="n">
-        <v>4.8579</v>
+        <v>7.43296</v>
       </c>
       <c r="C53" t="n">
-        <v>4857.9</v>
+        <v>7432.96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61354</v>
+        <v>1.62081</v>
       </c>
       <c r="B54" t="n">
-        <v>4.85782</v>
+        <v>7.4105</v>
       </c>
       <c r="C54" t="n">
-        <v>4857.82</v>
+        <v>7410.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64426</v>
+        <v>1.65219</v>
       </c>
       <c r="B55" t="n">
-        <v>4.85765</v>
+        <v>7.386760000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>4857.65</v>
+        <v>7386.76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67498</v>
+        <v>1.68357</v>
       </c>
       <c r="B56" t="n">
-        <v>4.85741</v>
+        <v>7.36164</v>
       </c>
       <c r="C56" t="n">
-        <v>4857.41</v>
+        <v>7361.64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.7057</v>
+        <v>1.71496</v>
       </c>
       <c r="B57" t="n">
-        <v>4.85709</v>
+        <v>7.335</v>
       </c>
       <c r="C57" t="n">
-        <v>4857.09</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73642</v>
+        <v>1.74634</v>
       </c>
       <c r="B58" t="n">
-        <v>4.856680000000001</v>
+        <v>7.30671</v>
       </c>
       <c r="C58" t="n">
-        <v>4856.68</v>
+        <v>7306.71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76724</v>
+        <v>1.77771</v>
       </c>
       <c r="B59" t="n">
-        <v>4.85618</v>
+        <v>7.27646</v>
       </c>
       <c r="C59" t="n">
-        <v>4856.18</v>
+        <v>7276.46</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79858</v>
+        <v>1.80868</v>
       </c>
       <c r="B60" t="n">
-        <v>4.85555</v>
+        <v>7.24464</v>
       </c>
       <c r="C60" t="n">
-        <v>4855.55</v>
+        <v>7244.64</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82992</v>
+        <v>1.83965</v>
       </c>
       <c r="B61" t="n">
-        <v>4.854880000000001</v>
+        <v>7.21122</v>
       </c>
       <c r="C61" t="n">
-        <v>4854.88</v>
+        <v>7211.22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86126</v>
+        <v>1.87062</v>
       </c>
       <c r="B62" t="n">
-        <v>4.85408</v>
+        <v>7.17619</v>
       </c>
       <c r="C62" t="n">
-        <v>4854.08</v>
+        <v>7176.19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89259</v>
+        <v>1.90152</v>
       </c>
       <c r="B63" t="n">
-        <v>4.85322</v>
+        <v>7.13907</v>
       </c>
       <c r="C63" t="n">
-        <v>4853.22</v>
+        <v>7139.07</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92393</v>
+        <v>1.93256</v>
       </c>
       <c r="B64" t="n">
-        <v>4.852279999999999</v>
+        <v>7.099640000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>4852.28</v>
+        <v>7099.64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95492</v>
+        <v>1.96349</v>
       </c>
       <c r="B65" t="n">
-        <v>4.85127</v>
+        <v>7.05807</v>
       </c>
       <c r="C65" t="n">
-        <v>4851.27</v>
+        <v>7058.07</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98581</v>
+        <v>1.99455</v>
       </c>
       <c r="B66" t="n">
-        <v>4.85017</v>
+        <v>7.01382</v>
       </c>
       <c r="C66" t="n">
-        <v>4850.17</v>
+        <v>7013.82</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01671</v>
+        <v>2.02544</v>
       </c>
       <c r="B67" t="n">
-        <v>4.84898</v>
+        <v>6.96725</v>
       </c>
       <c r="C67" t="n">
-        <v>4848.98</v>
+        <v>6967.25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0476</v>
+        <v>2.05649</v>
       </c>
       <c r="B68" t="n">
-        <v>4.847729999999999</v>
+        <v>6.91846</v>
       </c>
       <c r="C68" t="n">
-        <v>4847.73</v>
+        <v>6918.46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0785</v>
+        <v>2.0875</v>
       </c>
       <c r="B69" t="n">
-        <v>4.8464</v>
+        <v>6.86666</v>
       </c>
       <c r="C69" t="n">
-        <v>4846.4</v>
+        <v>6866.66</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.1094</v>
+        <v>2.11825</v>
       </c>
       <c r="B70" t="n">
-        <v>4.84499</v>
+        <v>6.812600000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>4844.99</v>
+        <v>6812.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1403</v>
+        <v>2.14945</v>
       </c>
       <c r="B71" t="n">
-        <v>4.8435</v>
+        <v>6.75506</v>
       </c>
       <c r="C71" t="n">
-        <v>4843.5</v>
+        <v>6755.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17119</v>
+        <v>2.18055</v>
       </c>
       <c r="B72" t="n">
-        <v>4.841930000000001</v>
+        <v>6.695130000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>4841.93</v>
+        <v>6695.13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20225</v>
+        <v>2.21133</v>
       </c>
       <c r="B73" t="n">
-        <v>4.84028</v>
+        <v>6.63276</v>
       </c>
       <c r="C73" t="n">
-        <v>4840.28</v>
+        <v>6632.76</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23333</v>
+        <v>2.24246</v>
       </c>
       <c r="B74" t="n">
-        <v>4.8385</v>
+        <v>6.56704</v>
       </c>
       <c r="C74" t="n">
-        <v>4838.5</v>
+        <v>6567.04</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26442</v>
+        <v>2.27334</v>
       </c>
       <c r="B75" t="n">
-        <v>4.83663</v>
+        <v>6.49933</v>
       </c>
       <c r="C75" t="n">
-        <v>4836.63</v>
+        <v>6499.33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29551</v>
+        <v>2.3045</v>
       </c>
       <c r="B76" t="n">
-        <v>4.83467</v>
+        <v>6.42787</v>
       </c>
       <c r="C76" t="n">
-        <v>4834.67</v>
+        <v>6427.87</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32659</v>
+        <v>2.33532</v>
       </c>
       <c r="B77" t="n">
-        <v>4.83261</v>
+        <v>6.35458</v>
       </c>
       <c r="C77" t="n">
-        <v>4832.61</v>
+        <v>6354.58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35768</v>
+        <v>2.36653</v>
       </c>
       <c r="B78" t="n">
-        <v>4.83048</v>
+        <v>6.27824</v>
       </c>
       <c r="C78" t="n">
-        <v>4830.48</v>
+        <v>6278.24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38876</v>
+        <v>2.39744</v>
       </c>
       <c r="B79" t="n">
-        <v>4.82831</v>
+        <v>6.19978</v>
       </c>
       <c r="C79" t="n">
-        <v>4828.31</v>
+        <v>6199.78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41985</v>
+        <v>2.42837</v>
       </c>
       <c r="B80" t="n">
-        <v>4.82605</v>
+        <v>6.11897</v>
       </c>
       <c r="C80" t="n">
-        <v>4826.05</v>
+        <v>6118.97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45093</v>
+        <v>2.46011</v>
       </c>
       <c r="B81" t="n">
-        <v>4.823720000000001</v>
+        <v>6.03445</v>
       </c>
       <c r="C81" t="n">
-        <v>4823.72</v>
+        <v>6034.45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48202</v>
+        <v>2.49082</v>
       </c>
       <c r="B82" t="n">
-        <v>4.82129</v>
+        <v>5.949520000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>4821.29</v>
+        <v>5949.52</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.5131</v>
+        <v>2.52102</v>
       </c>
       <c r="B83" t="n">
-        <v>4.81876</v>
+        <v>5.86498</v>
       </c>
       <c r="C83" t="n">
-        <v>4818.76</v>
+        <v>5864.98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.5438</v>
+        <v>2.55229</v>
       </c>
       <c r="B84" t="n">
-        <v>4.816140000000001</v>
+        <v>5.77586</v>
       </c>
       <c r="C84" t="n">
-        <v>4816.14</v>
+        <v>5775.86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57396</v>
+        <v>2.58394</v>
       </c>
       <c r="B85" t="n">
-        <v>4.81343</v>
+        <v>5.68376</v>
       </c>
       <c r="C85" t="n">
-        <v>4813.43</v>
+        <v>5683.76</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60414</v>
+        <v>2.61523</v>
       </c>
       <c r="B86" t="n">
-        <v>4.81065</v>
+        <v>5.59295</v>
       </c>
       <c r="C86" t="n">
-        <v>4810.65</v>
+        <v>5592.95</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63431</v>
+        <v>2.64514</v>
       </c>
       <c r="B87" t="n">
-        <v>4.80776</v>
+        <v>5.50396</v>
       </c>
       <c r="C87" t="n">
-        <v>4807.76</v>
+        <v>5503.96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66448</v>
+        <v>2.67575</v>
       </c>
       <c r="B88" t="n">
-        <v>4.80479</v>
+        <v>5.41421</v>
       </c>
       <c r="C88" t="n">
-        <v>4804.79</v>
+        <v>5414.21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69465</v>
+        <v>2.70776</v>
       </c>
       <c r="B89" t="n">
-        <v>4.80173</v>
+        <v>5.31801</v>
       </c>
       <c r="C89" t="n">
-        <v>4801.73</v>
+        <v>5318.01</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72482</v>
+        <v>2.73976</v>
       </c>
       <c r="B90" t="n">
-        <v>4.79858</v>
+        <v>5.22393</v>
       </c>
       <c r="C90" t="n">
-        <v>4798.58</v>
+        <v>5223.93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.755</v>
+        <v>2.77023</v>
       </c>
       <c r="B91" t="n">
-        <v>4.79533</v>
+        <v>5.13213</v>
       </c>
       <c r="C91" t="n">
-        <v>4795.33</v>
+        <v>5132.13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78601</v>
+        <v>2.80063</v>
       </c>
       <c r="B92" t="n">
-        <v>4.79185</v>
+        <v>5.0427</v>
       </c>
       <c r="C92" t="n">
-        <v>4791.85</v>
+        <v>5042.7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8185</v>
+        <v>2.83001</v>
       </c>
       <c r="B93" t="n">
-        <v>4.787970000000001</v>
+        <v>4.95574</v>
       </c>
       <c r="C93" t="n">
-        <v>4787.97</v>
+        <v>4955.74</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85057</v>
+        <v>2.86192</v>
       </c>
       <c r="B94" t="n">
-        <v>4.78389</v>
+        <v>4.861689999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>4783.89</v>
+        <v>4861.69</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88207</v>
+        <v>2.89463</v>
       </c>
       <c r="B95" t="n">
-        <v>4.7796</v>
+        <v>4.76722</v>
       </c>
       <c r="C95" t="n">
-        <v>4779.6</v>
+        <v>4767.22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91358</v>
+        <v>2.92571</v>
       </c>
       <c r="B96" t="n">
-        <v>4.775180000000001</v>
+        <v>4.67554</v>
       </c>
       <c r="C96" t="n">
-        <v>4775.18</v>
+        <v>4675.54</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94509</v>
+        <v>2.9568</v>
       </c>
       <c r="B97" t="n">
-        <v>4.77064</v>
+        <v>4.58614</v>
       </c>
       <c r="C97" t="n">
-        <v>4770.64</v>
+        <v>4586.14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9766</v>
+        <v>2.98729</v>
       </c>
       <c r="B98" t="n">
-        <v>4.76598</v>
+        <v>4.49916</v>
       </c>
       <c r="C98" t="n">
-        <v>4765.98</v>
+        <v>4499.16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00811</v>
+        <v>3.01654</v>
       </c>
       <c r="B99" t="n">
-        <v>4.76117</v>
+        <v>4.41542</v>
       </c>
       <c r="C99" t="n">
-        <v>4761.17</v>
+        <v>4415.42</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03961</v>
+        <v>3.0458</v>
       </c>
       <c r="B100" t="n">
-        <v>4.7562</v>
+        <v>4.33485</v>
       </c>
       <c r="C100" t="n">
-        <v>4756.2</v>
+        <v>4334.85</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07112</v>
+        <v>3.07902</v>
       </c>
       <c r="B101" t="n">
-        <v>4.751060000000001</v>
+        <v>4.24615</v>
       </c>
       <c r="C101" t="n">
-        <v>4751.06</v>
+        <v>4246.15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10262</v>
+        <v>3.11102</v>
       </c>
       <c r="B102" t="n">
-        <v>4.74577</v>
+        <v>4.159479999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>4745.77</v>
+        <v>4159.48</v>
       </c>
     </row>
   </sheetData>
